--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CDE/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CDE/20/seed5/result_data_RandomForest.xlsx
@@ -474,7 +474,7 @@
         <v>-7.6</v>
       </c>
       <c r="E2" t="n">
-        <v>15.80309999999999</v>
+        <v>15.9605</v>
       </c>
     </row>
     <row r="3">
@@ -488,10 +488,10 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-8.6175</v>
+        <v>-8.605500000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>16.5149</v>
+        <v>16.51110000000001</v>
       </c>
     </row>
     <row r="4">
@@ -505,7 +505,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.4353</v>
+        <v>-7.382300000000002</v>
       </c>
       <c r="E4" t="n">
         <v>17.51</v>
@@ -593,7 +593,7 @@
         <v>-7.01</v>
       </c>
       <c r="E9" t="n">
-        <v>17.4286</v>
+        <v>17.4263</v>
       </c>
     </row>
     <row r="10">
@@ -621,7 +621,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.3578</v>
+        <v>-13.1597</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.6165</v>
+        <v>-10.7099</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.181900000000001</v>
+        <v>-7.285399999999999</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -689,13 +689,13 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.76329999999999</v>
+        <v>-13.6824</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.4892</v>
+        <v>16.4217</v>
       </c>
     </row>
     <row r="16">
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.2146</v>
+        <v>16.2076</v>
       </c>
     </row>
     <row r="20">
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>15.9302</v>
+        <v>16.1247</v>
       </c>
     </row>
     <row r="21">
@@ -865,7 +865,7 @@
         <v>-7.4</v>
       </c>
       <c r="E25" t="n">
-        <v>17.1946</v>
+        <v>17.19820000000001</v>
       </c>
     </row>
     <row r="26">
@@ -879,7 +879,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-8.837799999999994</v>
+        <v>-9.208799999999989</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -893,13 +893,13 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.34139999999999</v>
+        <v>-12.7304</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.3921</v>
+        <v>16.68579999999999</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-14.061</v>
+        <v>-13.96899999999999</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
       </c>
       <c r="E28" t="n">
-        <v>16.21579999999999</v>
+        <v>16.08799999999999</v>
       </c>
     </row>
     <row r="29">
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>14.83189999999999</v>
+        <v>15.0867</v>
       </c>
     </row>
     <row r="31">
@@ -961,10 +961,10 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.0506</v>
+        <v>-13.27740000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.840600000000002</v>
+        <v>-8.608600000000001</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -978,13 +978,13 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-13.1413</v>
+        <v>-13.61940000000001</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
       </c>
       <c r="E32" t="n">
-        <v>16.61779999999999</v>
+        <v>16.18389999999999</v>
       </c>
     </row>
     <row r="33">
@@ -1032,7 +1032,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-8.755999999999993</v>
+        <v>-9.073999999999991</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1046,7 +1046,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-12.8556</v>
+        <v>-13.38110000000001</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.925499999999999</v>
+        <v>-7.674399999999994</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1080,7 +1080,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-11.5313</v>
+        <v>-11.56650000000001</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1100,7 +1100,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-7.238300000000004</v>
+        <v>-7.001600000000007</v>
       </c>
       <c r="E39" t="n">
         <v>16.91</v>
@@ -1117,7 +1117,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-8.152099999999995</v>
+        <v>-7.660699999999992</v>
       </c>
       <c r="E40" t="n">
         <v>16.16</v>
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>15.93339999999999</v>
+        <v>15.95510000000001</v>
       </c>
     </row>
     <row r="45">
@@ -1202,7 +1202,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.248099999999997</v>
+        <v>-7.202100000000002</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1216,7 +1216,7 @@
         <v>4.17</v>
       </c>
       <c r="C46" t="n">
-        <v>-14.56749999999999</v>
+        <v>-14.68959999999999</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
@@ -1239,7 +1239,7 @@
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.5702</v>
+        <v>16.56950000000002</v>
       </c>
     </row>
     <row r="48">
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.540299999999998</v>
+        <v>-7.548599999999998</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1352,7 +1352,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-13.32070000000001</v>
+        <v>-13.607</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.85200000000001</v>
+        <v>-13.771</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1386,7 +1386,7 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-13.0533</v>
+        <v>-12.9081</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.511300000000004</v>
+        <v>-8.623600000000003</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1426,7 +1426,7 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.9872</v>
+        <v>16.9034</v>
       </c>
     </row>
     <row r="59">
@@ -1494,7 +1494,7 @@
         <v>-8.5</v>
       </c>
       <c r="E62" t="n">
-        <v>16.7102</v>
+        <v>16.6361</v>
       </c>
     </row>
     <row r="63">
@@ -1573,7 +1573,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-10.65940000000001</v>
+        <v>-10.6038</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1607,7 +1607,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-11.2795</v>
+        <v>-11.15009999999999</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1658,7 +1658,7 @@
         <v>6.81</v>
       </c>
       <c r="C72" t="n">
-        <v>-11.7582</v>
+        <v>-11.8236</v>
       </c>
       <c r="D72" t="n">
         <v>-7.37</v>
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-12.7893</v>
+        <v>-12.9616</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1749,7 +1749,7 @@
         <v>-6.2</v>
       </c>
       <c r="E77" t="n">
-        <v>17.04660000000002</v>
+        <v>17.11720000000002</v>
       </c>
     </row>
     <row r="78">
@@ -1766,7 +1766,7 @@
         <v>-6.53</v>
       </c>
       <c r="E78" t="n">
-        <v>16.45460000000002</v>
+        <v>16.37820000000002</v>
       </c>
     </row>
     <row r="79">
@@ -1814,7 +1814,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-6.970299999999994</v>
+        <v>-7.111699999999994</v>
       </c>
       <c r="E81" t="n">
         <v>17.6</v>
@@ -1845,10 +1845,10 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-14.08040000000001</v>
+        <v>-13.60440000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.911700000000002</v>
+        <v>-9.071699999999998</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.4799</v>
+        <v>16.5481</v>
       </c>
     </row>
     <row r="85">
@@ -1896,7 +1896,7 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-14.0356</v>
+        <v>-14.02119999999999</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
@@ -1953,7 +1953,7 @@
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.20440000000001</v>
+        <v>17.2739</v>
       </c>
     </row>
     <row r="90">
@@ -1981,13 +1981,13 @@
         <v>4.28</v>
       </c>
       <c r="C91" t="n">
-        <v>-10.3854</v>
+        <v>-10.4314</v>
       </c>
       <c r="D91" t="n">
         <v>-5.79</v>
       </c>
       <c r="E91" t="n">
-        <v>17.81650000000002</v>
+        <v>17.83840000000001</v>
       </c>
     </row>
     <row r="92">
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>18.07980000000002</v>
+        <v>18.12190000000001</v>
       </c>
     </row>
     <row r="93">
@@ -2015,7 +2015,7 @@
         <v>7.55</v>
       </c>
       <c r="C93" t="n">
-        <v>-11.0696</v>
+        <v>-11.369</v>
       </c>
       <c r="D93" t="n">
         <v>-6.1</v>
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>15.26829999999998</v>
+        <v>15.8978</v>
       </c>
     </row>
     <row r="97">
@@ -2117,7 +2117,7 @@
         <v>8.42</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.5944</v>
+        <v>-13.315</v>
       </c>
       <c r="D99" t="n">
         <v>-7.98</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.099600000000002</v>
+        <v>-8.108300000000005</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,10 +2171,10 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.8136</v>
+        <v>-7.7447</v>
       </c>
       <c r="E102" t="n">
-        <v>16.48390000000001</v>
+        <v>16.5391</v>
       </c>
     </row>
   </sheetData>
